--- a/docs/datasheet.xlsx
+++ b/docs/datasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_3\Desktop\College\Spring2022\ML\artificial-neural-network\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d5d7de54665b202/Desktop/artificial-neural-network/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E69D47-FDB6-4265-BC5C-3A22F5E4930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{78E69D47-FDB6-4265-BC5C-3A22F5E4930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFCF2D57-7D0A-4310-B45D-F1EA69733CEE}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="3435" windowWidth="18765" windowHeight="15240" xr2:uid="{B09FA958-FA5D-4931-BA7A-B01685D08093}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B09FA958-FA5D-4931-BA7A-B01685D08093}"/>
   </bookViews>
   <sheets>
     <sheet name="testIrisNoisy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -397,37 +396,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>66.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>66.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>66.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>65.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>66.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>65.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>63.37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>65.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>65.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>66.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,37 +590,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>66.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>64.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>66.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>66.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>66.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>66.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>65.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>72.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>66.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>66.459999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,25 +1792,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E99CAC-1A59-41EB-9903-EF1B7552F4F9}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">NOW()</f>
-        <v>44625.601876504632</v>
+        <v>44636.745704513887</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1829,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1862,147 +1861,213 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="e">
+      <c r="F6">
+        <v>66.27</v>
+      </c>
+      <c r="G6" s="2">
         <f>AVERAGE(C6,D6,E6,F6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="2" t="e">
+        <v>66.27</v>
+      </c>
+      <c r="K6">
+        <v>66.19</v>
+      </c>
+      <c r="L6" s="2">
         <f>AVERAGE(H6,I6,J6,K6)</f>
-        <v>#DIV/0!</v>
+        <v>66.19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="e">
+      <c r="F7">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" ref="G7:G16" si="0">AVERAGE(C7,D7,E7,F7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="2" t="e">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="K7">
+        <v>66.7</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" ref="L7:L16" si="1">AVERAGE(H7,I7,J7,K7)</f>
-        <v>#DIV/0!</v>
+        <v>66.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="e">
+      <c r="F8">
+        <v>66.42</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
+        <v>66.42</v>
+      </c>
+      <c r="K8">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>64.540000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="e">
+      <c r="F9">
+        <v>65.7</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="2" t="e">
+        <v>65.7</v>
+      </c>
+      <c r="K9">
+        <v>66.680000000000007</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.680000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="e">
+      <c r="F10">
+        <v>64.22</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2" t="e">
+        <v>64.22</v>
+      </c>
+      <c r="K10">
+        <v>66.33</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="e">
+      <c r="F11">
+        <v>66.58</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="2" t="e">
+        <v>66.58</v>
+      </c>
+      <c r="K11">
+        <v>66.63</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="e">
+      <c r="F12">
+        <v>65.34</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="2" t="e">
+        <v>65.34</v>
+      </c>
+      <c r="K12">
+        <v>66.42</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="e">
+      <c r="F13">
+        <v>63.37</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="2" t="e">
+        <v>63.37</v>
+      </c>
+      <c r="K13">
+        <v>65.69</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>65.69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>16</v>
       </c>
-      <c r="G14" s="2" t="e">
+      <c r="F14">
+        <v>65.77</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="2" t="e">
+        <v>65.77</v>
+      </c>
+      <c r="K14">
+        <v>72.16</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>72.16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>18</v>
       </c>
-      <c r="G15" s="2" t="e">
+      <c r="F15">
+        <v>65.73</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2" t="e">
+        <v>65.73</v>
+      </c>
+      <c r="K15">
+        <v>66.44</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>20</v>
       </c>
-      <c r="G16" s="2" t="e">
+      <c r="F16">
+        <v>66.34</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2" t="e">
+        <v>66.34</v>
+      </c>
+      <c r="K16">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.459999999999994</v>
       </c>
     </row>
   </sheetData>
